--- a/IT23820678.xlsx
+++ b/IT23820678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasha\Desktop\IT23820678\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29CEF34-1FC7-49BB-9EA2-C470F9CDC335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B359DB4-8D0F-4E52-B470-001E00724F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="227">
   <si>
     <t>TC ID</t>
   </si>
@@ -454,15 +454,6 @@
     <t>The system fails to preserve the 'Rs.' prefix correctly in some cases.</t>
   </si>
   <si>
-    <t>English Abbreviations</t>
-  </si>
-  <si>
-    <t>ASAP</t>
-  </si>
-  <si>
-    <t>ASAP' is phonetically transliterated, losing its meaning.</t>
-  </si>
-  <si>
     <t>Paragraph-style long input</t>
   </si>
   <si>
@@ -475,18 +466,6 @@
     <t>· Formatting (spaces / line breaks / paragraph)· Complex sentence· L (≥300 characters)· Robustness validation</t>
   </si>
   <si>
-    <t>Clear input field UI</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Output field should be empty</t>
-  </si>
-  <si>
-    <t>UI correctly resets the output field when input is cleared.</t>
-  </si>
-  <si>
     <t>· Empty/cleared input handling· Simple sentence· S (≤30 characters)· Real-time output update behavior</t>
   </si>
   <si>
@@ -559,9 +538,6 @@
     <t>ඔය එනවානම්,&lt;බ්‍ර&gt;මම බලන් ඉන්නවා?</t>
   </si>
   <si>
-    <t xml:space="preserve">ඔයා එනවානම්, මම බලන් ඉන්නවාද? </t>
-  </si>
-  <si>
     <t>Technical abbreviation in mixed sentence</t>
   </si>
   <si>
@@ -598,115 +574,133 @@
     <t>W letter does not work</t>
   </si>
   <si>
-    <t>Pos_Fun_01</t>
-  </si>
-  <si>
-    <t>Pos_Fun_02</t>
-  </si>
-  <si>
-    <t>Pos_Fun_03</t>
-  </si>
-  <si>
-    <t>Pos_Fun_04</t>
-  </si>
-  <si>
-    <t>Pos_Fun_05</t>
-  </si>
-  <si>
-    <t>Pos_Fun_06</t>
-  </si>
-  <si>
-    <t>Pos_Fun_07</t>
-  </si>
-  <si>
-    <t>Pos_Fun_08</t>
-  </si>
-  <si>
-    <t>Pos_Fun_09</t>
-  </si>
-  <si>
-    <t>Pos_Fun_10</t>
-  </si>
-  <si>
-    <t>Pos_Fun_11</t>
-  </si>
-  <si>
-    <t>Pos_Fun_12</t>
-  </si>
-  <si>
-    <t>Pos_Fun_13</t>
-  </si>
-  <si>
-    <t>Pos_Fun_14</t>
-  </si>
-  <si>
-    <t>Pos_Fun_15</t>
-  </si>
-  <si>
-    <t>Pos_Fun_16</t>
-  </si>
-  <si>
-    <t>Pos_Fun_17</t>
-  </si>
-  <si>
-    <t>Pos_Fun_18</t>
-  </si>
-  <si>
-    <t>Pos_Fun_19</t>
-  </si>
-  <si>
-    <t>Pos_Fun_20</t>
-  </si>
-  <si>
-    <t>Pos_Fun_21</t>
-  </si>
-  <si>
-    <t>Pos_Fun_22</t>
-  </si>
-  <si>
-    <t>Pos_Fun_23</t>
-  </si>
-  <si>
-    <t>Pos_Fun_24</t>
-  </si>
-  <si>
-    <t>Pos_Fun_25</t>
-  </si>
-  <si>
-    <t>Neg_Fun_01</t>
-  </si>
-  <si>
-    <t>Neg_Fun_02</t>
-  </si>
-  <si>
-    <t>Neg_Fun_03</t>
-  </si>
-  <si>
-    <t>Neg_Fun_04</t>
-  </si>
-  <si>
-    <t>Neg_Fun_05</t>
-  </si>
-  <si>
-    <t>Neg_Fun_06</t>
-  </si>
-  <si>
-    <t>Neg_Fun_07</t>
-  </si>
-  <si>
-    <t>Neg_Fun_08</t>
-  </si>
-  <si>
-    <t>Neg_Fun_09</t>
-  </si>
-  <si>
-    <t>Neg_Fun_10</t>
-  </si>
-  <si>
-    <t>Neg_Fun_11</t>
-  </si>
-  <si>
     <t>Pos_UI</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0001</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0002</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0003</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0004</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0005</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0006</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0007</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0008</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0009</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0010</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0011</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0012</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0013</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0014</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0015</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0016</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0017</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0018</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0019</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0020</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0021</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0022</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0023</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0024</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0025</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0001</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0002</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0003</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0004</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0005</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0006</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0007</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0008</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0009</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඔයා එනවානම්, මම බලන් ඉන්නවා? </t>
+  </si>
+  <si>
+    <t>අපි කෑම කන්න යනවා සහ පස්සෙ චිත්‍රපටයකුත් බලනවා.</t>
+  </si>
+  <si>
+    <t>Sinhala output updates automatically in real-time</t>
+  </si>
+  <si>
+    <t>man gedhara yanavaa</t>
+  </si>
+  <si>
+    <t>මන් ගෙදර යනවා</t>
+  </si>
+  <si>
+    <t xml:space="preserve">මන් ගෙදර යනවා </t>
+  </si>
+  <si>
+    <t>UI correctly shows  updated text in real time</t>
   </si>
 </sst>
 </file>
@@ -766,10 +760,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -991,18 +984,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
     <col min="8" max="8" width="54.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1022,8 +1018,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>171</v>
+      <c r="F1" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1037,7 +1033,7 @@
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1045,7 +1041,7 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1066,7 +1062,7 @@
     </row>
     <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -1078,7 +1074,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
@@ -1095,7 +1091,7 @@
     </row>
     <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -1103,14 +1099,14 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>167</v>
+      <c r="D4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1124,7 +1120,7 @@
     </row>
     <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1132,7 +1128,7 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1153,7 +1149,7 @@
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -1161,7 +1157,7 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1182,7 +1178,7 @@
     </row>
     <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -1190,7 +1186,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1211,7 +1207,7 @@
     </row>
     <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
@@ -1240,7 +1236,7 @@
     </row>
     <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
@@ -1248,7 +1244,7 @@
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1269,7 +1265,7 @@
     </row>
     <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>48</v>
@@ -1277,7 +1273,7 @@
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1298,7 +1294,7 @@
     </row>
     <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>52</v>
@@ -1306,7 +1302,7 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1327,7 +1323,7 @@
     </row>
     <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>57</v>
@@ -1356,7 +1352,7 @@
     </row>
     <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>62</v>
@@ -1364,7 +1360,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1385,7 +1381,7 @@
     </row>
     <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>67</v>
@@ -1393,7 +1389,7 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1414,7 +1410,7 @@
     </row>
     <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>72</v>
@@ -1443,7 +1439,7 @@
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>77</v>
@@ -1472,7 +1468,7 @@
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>81</v>
@@ -1501,7 +1497,7 @@
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>86</v>
@@ -1530,7 +1526,7 @@
     </row>
     <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>91</v>
@@ -1559,7 +1555,7 @@
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>96</v>
@@ -1588,7 +1584,7 @@
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>100</v>
@@ -1617,7 +1613,7 @@
     </row>
     <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>105</v>
@@ -1646,7 +1642,7 @@
     </row>
     <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>109</v>
@@ -1654,14 +1650,14 @@
       <c r="C23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>163</v>
+      <c r="D23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
@@ -1675,7 +1671,7 @@
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>113</v>
@@ -1690,7 +1686,7 @@
         <v>114</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>12</v>
@@ -1704,7 +1700,7 @@
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>116</v>
@@ -1733,36 +1729,36 @@
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>121</v>
@@ -1773,10 +1769,10 @@
       <c r="D27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>123</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -1791,7 +1787,7 @@
     </row>
     <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>127</v>
@@ -1799,11 +1795,11 @@
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>173</v>
+      <c r="D28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>128</v>
@@ -1820,22 +1816,22 @@
     </row>
     <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>174</v>
+      <c r="F29" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>124</v>
@@ -1849,7 +1845,7 @@
     </row>
     <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>133</v>
@@ -1876,7 +1872,7 @@
     </row>
     <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>137</v>
@@ -1884,14 +1880,14 @@
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>175</v>
+      <c r="F31" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>124</v>
@@ -1905,22 +1901,22 @@
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>176</v>
+        <v>215</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>178</v>
+      <c r="D32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>124</v>
@@ -1934,28 +1930,28 @@
     </row>
     <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>183</v>
+      <c r="D33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>187</v>
+      <c r="H33" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>136</v>
@@ -1963,22 +1959,22 @@
     </row>
     <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>180</v>
+        <v>217</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>124</v>
@@ -1992,118 +1988,94 @@
     </row>
     <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="1"/>
+      <c r="E35" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="1" t="s">
         <v>146</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>150</v>
+      <c r="H36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>155</v>
+        <v>184</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IT23820678.xlsx
+++ b/IT23820678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasha\Desktop\IT23820678\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B359DB4-8D0F-4E52-B470-001E00724F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB279A4-3437-42F1-8184-0CF8205126C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="226">
   <si>
     <t>TC ID</t>
   </si>
@@ -691,16 +691,13 @@
     <t>Sinhala output updates automatically in real-time</t>
   </si>
   <si>
-    <t>man gedhara yanavaa</t>
-  </si>
-  <si>
-    <t>මන් ගෙදර යනවා</t>
-  </si>
-  <si>
-    <t xml:space="preserve">මන් ගෙදර යනවා </t>
-  </si>
-  <si>
     <t>UI correctly shows  updated text in real time</t>
+  </si>
+  <si>
+    <t>මං ගෙදර යනවා</t>
+  </si>
+  <si>
+    <t>mQQ gedhara yanavaa</t>
   </si>
 </sst>
 </file>
@@ -986,8 +983,8 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2055,19 +2052,19 @@
         <v>9</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F37" t="s">
-        <v>225</v>
+      <c r="F37" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>148</v>

--- a/IT23820678.xlsx
+++ b/IT23820678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasha\Desktop\IT23820678\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB279A4-3437-42F1-8184-0CF8205126C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03234A4-3CEE-44BA-8846-757011747D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,8 +983,8 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/IT23820678.xlsx
+++ b/IT23820678.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasha\Desktop\IT23820678\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03234A4-3CEE-44BA-8846-757011747D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7026D43-FFAA-4115-877B-54C19FD47513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="232">
   <si>
     <t>TC ID</t>
   </si>
@@ -421,15 +421,6 @@
     <t>· Mixed Singlish + English· Present tense· M (31−299 characters)· Robustness validation</t>
   </si>
   <si>
-    <t>Unsupported symbols</t>
-  </si>
-  <si>
-    <t>[ ] { }</t>
-  </si>
-  <si>
-    <t>Symbols are preserved but not transliterated.</t>
-  </si>
-  <si>
     <t>· Punctuation / numbers· Simple sentence· S (≤30 characters)· Robustness validation</t>
   </si>
   <si>
@@ -466,9 +457,6 @@
     <t>· Formatting (spaces / line breaks / paragraph)· Complex sentence· L (≥300 characters)· Robustness validation</t>
   </si>
   <si>
-    <t>· Empty/cleared input handling· Simple sentence· S (≤30 characters)· Real-time output update behavior</t>
-  </si>
-  <si>
     <t>මම ගෙදර යනවා</t>
   </si>
   <si>
@@ -562,15 +550,6 @@
     <t>English abbreviations (Nic) are converted to phonetic Sinhala instead of remaining in caps/English</t>
   </si>
   <si>
-    <t>waahanayak giyaa</t>
-  </si>
-  <si>
-    <t>wආහනයක් ගියා</t>
-  </si>
-  <si>
-    <t>වාහනයක් ගියා</t>
-  </si>
-  <si>
     <t>W letter does not work</t>
   </si>
   <si>
@@ -698,6 +677,45 @@
   </si>
   <si>
     <t>mQQ gedhara yanavaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real-time output update behavior</t>
+  </si>
+  <si>
+    <t>Not showing correct word</t>
+  </si>
+  <si>
+    <t>waahanaya paaree giyaa</t>
+  </si>
+  <si>
+    <t>Check  correct word w letter cant proccess</t>
+  </si>
+  <si>
+    <t>wආහනය පාරේ ගියා</t>
+  </si>
+  <si>
+    <t>වාහනය පාරේ ගියා</t>
+  </si>
+  <si>
+    <t>waahanayak aluthen miladhii ganna oona</t>
+  </si>
+  <si>
+    <t>wආහනයක් අලුතෙන් මිලදී ගන්න ඕන</t>
+  </si>
+  <si>
+    <t>වාහනයක් අලුතෙන් මිලදී ගන්න ඕන</t>
+  </si>
+  <si>
+    <t>Neg_UI_001</t>
+  </si>
+  <si>
+    <t>UI bugs letters and shows wrong word</t>
+  </si>
+  <si>
+    <t>Real time bug of UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I could not ctach this UI Bug with code so I put screen shot as proof in folder.it worked fine when tested.There is proof of screen shots of both </t>
   </si>
 </sst>
 </file>
@@ -981,10 +999,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1030,7 +1048,7 @@
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1059,7 +1077,7 @@
     </row>
     <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -1071,7 +1089,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
@@ -1088,7 +1106,7 @@
     </row>
     <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -1097,13 +1115,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1117,7 +1135,7 @@
     </row>
     <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1146,7 +1164,7 @@
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -1175,7 +1193,7 @@
     </row>
     <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -1204,7 +1222,7 @@
     </row>
     <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
@@ -1233,7 +1251,7 @@
     </row>
     <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
@@ -1262,7 +1280,7 @@
     </row>
     <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>48</v>
@@ -1291,7 +1309,7 @@
     </row>
     <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>52</v>
@@ -1320,7 +1338,7 @@
     </row>
     <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>57</v>
@@ -1349,7 +1367,7 @@
     </row>
     <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>62</v>
@@ -1378,7 +1396,7 @@
     </row>
     <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>67</v>
@@ -1407,7 +1425,7 @@
     </row>
     <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>72</v>
@@ -1436,7 +1454,7 @@
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>77</v>
@@ -1465,7 +1483,7 @@
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>81</v>
@@ -1494,7 +1512,7 @@
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>86</v>
@@ -1523,7 +1541,7 @@
     </row>
     <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>91</v>
@@ -1552,7 +1570,7 @@
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>96</v>
@@ -1581,7 +1599,7 @@
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>100</v>
@@ -1610,7 +1628,7 @@
     </row>
     <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>105</v>
@@ -1639,7 +1657,7 @@
     </row>
     <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>109</v>
@@ -1648,13 +1666,13 @@
         <v>110</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
@@ -1668,7 +1686,7 @@
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>113</v>
@@ -1683,7 +1701,7 @@
         <v>114</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>12</v>
@@ -1697,7 +1715,7 @@
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>116</v>
@@ -1726,36 +1744,36 @@
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>121</v>
@@ -1767,7 +1785,7 @@
         <v>122</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>123</v>
@@ -1784,7 +1802,7 @@
     </row>
     <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>127</v>
@@ -1793,10 +1811,10 @@
         <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>128</v>
@@ -1813,22 +1831,22 @@
     </row>
     <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>124</v>
@@ -1842,55 +1860,57 @@
     </row>
     <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>126</v>
@@ -1898,144 +1918,144 @@
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>124</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>126</v>
@@ -2043,31 +2063,45 @@
     </row>
     <row r="37" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>148</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
